--- a/state_results/Contact_Recreation/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/state_results/Contact_Recreation/ManawatuatHopelands_65cebb97ae.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/state_results/Contact_Recreation/ManawatuatHopelands_65cebb97ae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,16 +609,16 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>120</v>
       </c>
       <c r="G2">
-        <v>746.020536138049</v>
+        <v>836.69298145365</v>
       </c>
       <c r="H2">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I2">
         <v>3287.5</v>
@@ -642,19 +648,19 @@
         <v>5528097</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -671,16 +677,16 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>120</v>
       </c>
       <c r="G3">
-        <v>746.020536138049</v>
+        <v>836.69298145365</v>
       </c>
       <c r="H3">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I3">
         <v>3287.5</v>
@@ -710,19 +716,19 @@
         <v>5528097</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -739,16 +745,16 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>120</v>
       </c>
       <c r="G4">
-        <v>746.020536138049</v>
+        <v>836.69298145365</v>
       </c>
       <c r="H4">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I4">
         <v>3287.5</v>
@@ -778,19 +784,19 @@
         <v>5528097</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -807,16 +813,16 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>120</v>
       </c>
       <c r="G5">
-        <v>746.020536138049</v>
+        <v>836.69298145365</v>
       </c>
       <c r="H5">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I5">
         <v>3287.5</v>
@@ -846,19 +852,19 @@
         <v>5528097</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -875,16 +881,16 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
       <c r="G6">
-        <v>746.020536138049</v>
+        <v>836.69298145365</v>
       </c>
       <c r="H6">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I6">
         <v>3287.5</v>
@@ -914,19 +920,19 @@
         <v>5528097</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -943,16 +949,16 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>152.5</v>
       </c>
       <c r="G7">
-        <v>661.110627756782</v>
+        <v>720.299585115577</v>
       </c>
       <c r="H7">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I7">
         <v>3066</v>
@@ -982,19 +988,19 @@
         <v>5528097</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1011,16 +1017,16 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>152.5</v>
       </c>
       <c r="G8">
-        <v>661.110627756782</v>
+        <v>720.299585115577</v>
       </c>
       <c r="H8">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I8">
         <v>3066</v>
@@ -1050,19 +1056,19 @@
         <v>5528097</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1079,16 +1085,16 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>152.5</v>
       </c>
       <c r="G9">
-        <v>661.110627756782</v>
+        <v>720.299585115577</v>
       </c>
       <c r="H9">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I9">
         <v>3066</v>
@@ -1118,19 +1124,19 @@
         <v>5528097</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1147,16 +1153,16 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>152.5</v>
       </c>
       <c r="G10">
-        <v>661.110627756782</v>
+        <v>720.299585115577</v>
       </c>
       <c r="H10">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I10">
         <v>3066</v>
@@ -1186,19 +1192,19 @@
         <v>5528097</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1215,16 +1221,16 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>152.5</v>
       </c>
       <c r="G11">
-        <v>661.110627756782</v>
+        <v>720.299585115577</v>
       </c>
       <c r="H11">
-        <v>10652.2817667736</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I11">
         <v>3066</v>
@@ -1254,19 +1260,19 @@
         <v>5528097</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1283,16 +1289,16 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>692.443545397412</v>
+        <v>738.269454953106</v>
       </c>
       <c r="H12">
-        <v>13000</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I12">
         <v>3049</v>
@@ -1322,19 +1328,19 @@
         <v>5528097</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1351,16 +1357,16 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>692.443545397412</v>
+        <v>738.269454953106</v>
       </c>
       <c r="H13">
-        <v>13000</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I13">
         <v>3049</v>
@@ -1390,19 +1396,19 @@
         <v>5528097</v>
       </c>
       <c r="R13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1419,16 +1425,16 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
-        <v>692.443545397412</v>
+        <v>738.269454953106</v>
       </c>
       <c r="H14">
-        <v>13000</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I14">
         <v>3049</v>
@@ -1458,19 +1464,19 @@
         <v>5528097</v>
       </c>
       <c r="R14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1487,16 +1493,16 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>692.443545397412</v>
+        <v>738.269454953106</v>
       </c>
       <c r="H15">
-        <v>13000</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I15">
         <v>3049</v>
@@ -1526,19 +1532,19 @@
         <v>5528097</v>
       </c>
       <c r="R15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1555,16 +1561,16 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>692.443545397412</v>
+        <v>738.269454953106</v>
       </c>
       <c r="H16">
-        <v>13000</v>
+        <v>14913.6011986916</v>
       </c>
       <c r="I16">
         <v>3049</v>
@@ -1594,19 +1600,19 @@
         <v>5528097</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1623,13 +1629,13 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>93</v>
       </c>
       <c r="G17">
-        <v>1088.80720103355</v>
+        <v>1124.92423144609</v>
       </c>
       <c r="H17">
         <v>24201</v>
@@ -1662,19 +1668,19 @@
         <v>5528097</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1691,13 +1697,13 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>93</v>
       </c>
       <c r="G18">
-        <v>1088.80720103355</v>
+        <v>1124.92423144609</v>
       </c>
       <c r="H18">
         <v>24201</v>
@@ -1730,19 +1736,19 @@
         <v>5528097</v>
       </c>
       <c r="R18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1759,13 +1765,13 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>93</v>
       </c>
       <c r="G19">
-        <v>1088.80720103355</v>
+        <v>1124.92423144609</v>
       </c>
       <c r="H19">
         <v>24201</v>
@@ -1798,19 +1804,19 @@
         <v>5528097</v>
       </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1827,13 +1833,13 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <v>93</v>
       </c>
       <c r="G20">
-        <v>1088.80720103355</v>
+        <v>1124.92423144609</v>
       </c>
       <c r="H20">
         <v>24201</v>
@@ -1866,19 +1872,19 @@
         <v>5528097</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1895,13 +1901,13 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>93</v>
       </c>
       <c r="G21">
-        <v>1088.80720103355</v>
+        <v>1124.92423144609</v>
       </c>
       <c r="H21">
         <v>24201</v>
@@ -1934,19 +1940,19 @@
         <v>5528097</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1963,13 +1969,13 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <v>86</v>
       </c>
       <c r="G22">
-        <v>1061.95515221178</v>
+        <v>1061.95980048194</v>
       </c>
       <c r="H22">
         <v>24201</v>
@@ -2002,19 +2008,19 @@
         <v>5528097</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2031,13 +2037,13 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>86</v>
       </c>
       <c r="G23">
-        <v>1061.95515221178</v>
+        <v>1061.95980048194</v>
       </c>
       <c r="H23">
         <v>24201</v>
@@ -2070,19 +2076,19 @@
         <v>5528097</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2099,13 +2105,13 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>86</v>
       </c>
       <c r="G24">
-        <v>1061.95515221178</v>
+        <v>1061.95980048194</v>
       </c>
       <c r="H24">
         <v>24201</v>
@@ -2138,19 +2144,19 @@
         <v>5528097</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2167,13 +2173,13 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <v>86</v>
       </c>
       <c r="G25">
-        <v>1061.95515221178</v>
+        <v>1061.95980048194</v>
       </c>
       <c r="H25">
         <v>24201</v>
@@ -2206,19 +2212,19 @@
         <v>5528097</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2235,13 +2241,13 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>86</v>
       </c>
       <c r="G26">
-        <v>1061.95515221178</v>
+        <v>1061.95980048194</v>
       </c>
       <c r="H26">
         <v>24201</v>
@@ -2274,19 +2280,19 @@
         <v>5528097</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2303,13 +2309,13 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27">
         <v>98</v>
       </c>
       <c r="G27">
-        <v>1333.85566644454</v>
+        <v>1333.85880689087</v>
       </c>
       <c r="H27">
         <v>24201</v>
@@ -2342,19 +2348,19 @@
         <v>5528097</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2371,13 +2377,13 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>98</v>
       </c>
       <c r="G28">
-        <v>1333.85566644454</v>
+        <v>1333.85880689087</v>
       </c>
       <c r="H28">
         <v>24201</v>
@@ -2410,19 +2416,19 @@
         <v>5528097</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2439,13 +2445,13 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>98</v>
       </c>
       <c r="G29">
-        <v>1333.85566644454</v>
+        <v>1333.85880689087</v>
       </c>
       <c r="H29">
         <v>24201</v>
@@ -2478,19 +2484,19 @@
         <v>5528097</v>
       </c>
       <c r="R29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2507,13 +2513,13 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30">
         <v>98</v>
       </c>
       <c r="G30">
-        <v>1333.85566644454</v>
+        <v>1333.85880689087</v>
       </c>
       <c r="H30">
         <v>24201</v>
@@ -2546,19 +2552,19 @@
         <v>5528097</v>
       </c>
       <c r="R30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2575,13 +2581,13 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31">
         <v>98</v>
       </c>
       <c r="G31">
-        <v>1333.85566644454</v>
+        <v>1333.85880689087</v>
       </c>
       <c r="H31">
         <v>24201</v>
@@ -2614,19 +2620,699 @@
         <v>5528097</v>
       </c>
       <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>96.5</v>
+      </c>
+      <c r="G32">
+        <v>1284.98263028163</v>
+      </c>
+      <c r="H32">
+        <v>24201</v>
+      </c>
+      <c r="I32">
+        <v>8410</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>27.5</v>
+      </c>
+      <c r="L32">
+        <v>96</v>
+      </c>
+      <c r="M32">
+        <v>534</v>
+      </c>
+      <c r="N32">
+        <v>710.3</v>
+      </c>
+      <c r="O32">
+        <v>4064</v>
+      </c>
+      <c r="P32">
+        <v>1851498</v>
+      </c>
+      <c r="Q32">
+        <v>5528097</v>
+      </c>
+      <c r="R32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>96.5</v>
+      </c>
+      <c r="G33">
+        <v>1284.98263028163</v>
+      </c>
+      <c r="H33">
+        <v>24201</v>
+      </c>
+      <c r="I33">
+        <v>8410</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>27.5</v>
+      </c>
+      <c r="L33">
+        <v>96</v>
+      </c>
+      <c r="M33">
+        <v>534</v>
+      </c>
+      <c r="N33">
+        <v>710.3</v>
+      </c>
+      <c r="O33">
+        <v>4064</v>
+      </c>
+      <c r="P33">
+        <v>1851498</v>
+      </c>
+      <c r="Q33">
+        <v>5528097</v>
+      </c>
+      <c r="R33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>96.5</v>
+      </c>
+      <c r="G34">
+        <v>1284.98263028163</v>
+      </c>
+      <c r="H34">
+        <v>24201</v>
+      </c>
+      <c r="I34">
+        <v>8410</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>27.5</v>
+      </c>
+      <c r="L34">
+        <v>96</v>
+      </c>
+      <c r="M34">
+        <v>534</v>
+      </c>
+      <c r="N34">
+        <v>710.3</v>
+      </c>
+      <c r="O34">
+        <v>4064</v>
+      </c>
+      <c r="P34">
+        <v>1851498</v>
+      </c>
+      <c r="Q34">
+        <v>5528097</v>
+      </c>
+      <c r="R34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" t="s">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>96.5</v>
+      </c>
+      <c r="G35">
+        <v>1284.98263028163</v>
+      </c>
+      <c r="H35">
+        <v>24201</v>
+      </c>
+      <c r="I35">
+        <v>8410</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>27.5</v>
+      </c>
+      <c r="L35">
+        <v>96</v>
+      </c>
+      <c r="M35">
+        <v>534</v>
+      </c>
+      <c r="N35">
+        <v>710.3</v>
+      </c>
+      <c r="O35">
+        <v>4064</v>
+      </c>
+      <c r="P35">
+        <v>1851498</v>
+      </c>
+      <c r="Q35">
+        <v>5528097</v>
+      </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>96.5</v>
+      </c>
+      <c r="G36">
+        <v>1284.98263028163</v>
+      </c>
+      <c r="H36">
+        <v>24201</v>
+      </c>
+      <c r="I36">
+        <v>8410</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>27.5</v>
+      </c>
+      <c r="L36">
+        <v>96</v>
+      </c>
+      <c r="M36">
+        <v>534</v>
+      </c>
+      <c r="N36">
+        <v>710.3</v>
+      </c>
+      <c r="O36">
+        <v>4064</v>
+      </c>
+      <c r="P36">
+        <v>1851498</v>
+      </c>
+      <c r="Q36">
+        <v>5528097</v>
+      </c>
+      <c r="R36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s">
+        <v>44</v>
+      </c>
+      <c r="T36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>46</v>
+      </c>
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="S31" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>122</v>
+      </c>
+      <c r="G37">
+        <v>1295.94698751192</v>
+      </c>
+      <c r="H37">
+        <v>24201</v>
+      </c>
+      <c r="I37">
+        <v>7537</v>
+      </c>
+      <c r="J37">
+        <v>23.3870967741935</v>
+      </c>
+      <c r="K37">
+        <v>34.6774193548387</v>
+      </c>
+      <c r="L37">
+        <v>122</v>
+      </c>
+      <c r="M37">
+        <v>688.9</v>
+      </c>
+      <c r="N37">
+        <v>825.16</v>
+      </c>
+      <c r="O37">
+        <v>4249.2</v>
+      </c>
+      <c r="P37">
+        <v>1851498</v>
+      </c>
+      <c r="Q37">
+        <v>5528097</v>
+      </c>
+      <c r="R37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" t="s">
+        <v>46</v>
+      </c>
+      <c r="V37" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>122</v>
+      </c>
+      <c r="G38">
+        <v>1295.94698751192</v>
+      </c>
+      <c r="H38">
+        <v>24201</v>
+      </c>
+      <c r="I38">
+        <v>7537</v>
+      </c>
+      <c r="J38">
+        <v>23.3870967741935</v>
+      </c>
+      <c r="K38">
+        <v>34.6774193548387</v>
+      </c>
+      <c r="L38">
+        <v>122</v>
+      </c>
+      <c r="M38">
+        <v>688.9</v>
+      </c>
+      <c r="N38">
+        <v>825.16</v>
+      </c>
+      <c r="O38">
+        <v>4249.2</v>
+      </c>
+      <c r="P38">
+        <v>1851498</v>
+      </c>
+      <c r="Q38">
+        <v>5528097</v>
+      </c>
+      <c r="R38" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" t="s">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>46</v>
+      </c>
+      <c r="V38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>122</v>
+      </c>
+      <c r="G39">
+        <v>1295.94698751192</v>
+      </c>
+      <c r="H39">
+        <v>24201</v>
+      </c>
+      <c r="I39">
+        <v>7537</v>
+      </c>
+      <c r="J39">
+        <v>23.3870967741935</v>
+      </c>
+      <c r="K39">
+        <v>34.6774193548387</v>
+      </c>
+      <c r="L39">
+        <v>122</v>
+      </c>
+      <c r="M39">
+        <v>688.9</v>
+      </c>
+      <c r="N39">
+        <v>825.16</v>
+      </c>
+      <c r="O39">
+        <v>4249.2</v>
+      </c>
+      <c r="P39">
+        <v>1851498</v>
+      </c>
+      <c r="Q39">
+        <v>5528097</v>
+      </c>
+      <c r="R39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" t="s">
+        <v>44</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>46</v>
+      </c>
+      <c r="V39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>122</v>
+      </c>
+      <c r="G40">
+        <v>1295.94698751192</v>
+      </c>
+      <c r="H40">
+        <v>24201</v>
+      </c>
+      <c r="I40">
+        <v>7537</v>
+      </c>
+      <c r="J40">
+        <v>23.3870967741935</v>
+      </c>
+      <c r="K40">
+        <v>34.6774193548387</v>
+      </c>
+      <c r="L40">
+        <v>122</v>
+      </c>
+      <c r="M40">
+        <v>688.9</v>
+      </c>
+      <c r="N40">
+        <v>825.16</v>
+      </c>
+      <c r="O40">
+        <v>4249.2</v>
+      </c>
+      <c r="P40">
+        <v>1851498</v>
+      </c>
+      <c r="Q40">
+        <v>5528097</v>
+      </c>
+      <c r="R40" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>122</v>
+      </c>
+      <c r="G41">
+        <v>1295.94698751192</v>
+      </c>
+      <c r="H41">
+        <v>24201</v>
+      </c>
+      <c r="I41">
+        <v>7537</v>
+      </c>
+      <c r="J41">
+        <v>23.3870967741935</v>
+      </c>
+      <c r="K41">
+        <v>34.6774193548387</v>
+      </c>
+      <c r="L41">
+        <v>122</v>
+      </c>
+      <c r="M41">
+        <v>688.9</v>
+      </c>
+      <c r="N41">
+        <v>825.16</v>
+      </c>
+      <c r="O41">
+        <v>4249.2</v>
+      </c>
+      <c r="P41">
+        <v>1851498</v>
+      </c>
+      <c r="Q41">
+        <v>5528097</v>
+      </c>
+      <c r="R41" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
